--- a/.schema/mhr_user_pos.xlsx
+++ b/.schema/mhr_user_pos.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:I3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
